--- a/source/constructs/config/batch_create/identifier/template/batch_create_identifier-en.xlsx
+++ b/source/constructs/config/batch_create/identifier/template/batch_create_identifier-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cuihubin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087225CE-AFBE-164A-ACB2-2789DF1AA51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED54AFCF-2676-0448-87A4-D5D5D754B4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A3F6337F-BB59-9941-91D9-6943CD218DAB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A3F6337F-BB59-9941-91D9-6943CD218DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="OriginTemplate" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">: Required. 
+      <t xml:space="preserve">: At least one of the two items, Rule and Header Keywords, must be filled out. 
 - </t>
     </r>
     <r>
@@ -137,7 +137,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">: Optional. 
+      <t xml:space="preserve">: At least one of the two items, Rule and Header Keywords, must be filled out. Multiple keywords separated by semiangle comma.
 - </t>
     </r>
     <r>
@@ -155,7 +155,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">: Optional.
+      <t xml:space="preserve">: Optional. Multiple keywords separated by semiangle comma.
 - </t>
     </r>
     <r>
@@ -329,19 +329,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,7 +658,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -676,20 +675,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="323" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -718,7 +717,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="7"/>
+      <c r="A3" s="4"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:9">
